--- a/data/trans_bre/P1403-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1403-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.2538716481925726</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3901503113567025</v>
+        <v>0.3901503113567022</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.539467983076305</v>
+        <v>3.89946567668295</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.973907401975209</v>
+        <v>2.818889096844797</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.614355826211531</v>
+        <v>3.224486959275811</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.190771741342582</v>
+        <v>8.985359517146604</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1253755224580749</v>
+        <v>0.1362962492763784</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07907969354776169</v>
+        <v>0.07861034353579402</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08589378631111448</v>
+        <v>0.09904117259805145</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2398695251844135</v>
+        <v>0.2333359369269605</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.00236689257165</v>
+        <v>11.26636539362557</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.5219989767615</v>
+        <v>11.08207292548193</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.17590087531747</v>
+        <v>12.29301659882845</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.02420440566762</v>
+        <v>18.48729686615512</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4541614466417844</v>
+        <v>0.4734276666831574</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3527669360682222</v>
+        <v>0.3404687065582998</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4390174374958195</v>
+        <v>0.4469727319795088</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5743662130124479</v>
+        <v>0.5782164054785606</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.01626474289071617</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-2.083811673094846</v>
+        <v>-2.083811673094849</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.06350963941953994</v>
@@ -749,7 +749,7 @@
         <v>0.001487112032309755</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1327762693516204</v>
+        <v>-0.1327762693516205</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.095644981692846</v>
+        <v>-2.165649243179828</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.434282461148173</v>
+        <v>-3.331560630847356</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.031583157464343</v>
+        <v>-1.927973418133565</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.962932538597726</v>
+        <v>-3.946037662950289</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2610517986920851</v>
+        <v>-0.2695305541610706</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3150475065633633</v>
+        <v>-0.3105258473478579</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1688346849350389</v>
+        <v>-0.1618576775820239</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2401634406503779</v>
+        <v>-0.237650918388045</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.181516851268754</v>
+        <v>1.319200829405942</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6425183752942776</v>
+        <v>0.5400013870150603</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.975191333619308</v>
+        <v>2.101914565099114</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.2060837773919979</v>
+        <v>-0.2536020064283225</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1937382518244554</v>
+        <v>0.2130011094342536</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07600232374557396</v>
+        <v>0.05590208428328225</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1996015490434805</v>
+        <v>0.2088582701590395</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.01557807323411847</v>
+        <v>-0.01739376469402941</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-4.432244412252014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-5.569726371735857</v>
+        <v>-5.569726371735855</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1791289969672134</v>
@@ -849,7 +849,7 @@
         <v>-0.4314253168129458</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3238047316190644</v>
+        <v>-0.3238047316190643</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.516362764373905</v>
+        <v>-4.514306455831303</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.617994151988846</v>
+        <v>-5.660000161980669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.218416894480486</v>
+        <v>-7.965328081354841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.662834959405886</v>
+        <v>-8.870095199049105</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5027128678500149</v>
+        <v>-0.5051598096419956</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5320826730822872</v>
+        <v>-0.5431776798233228</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6608122683152952</v>
+        <v>-0.6575877794068534</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4578387067890711</v>
+        <v>-0.4569543573026989</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.925947401666</v>
+        <v>2.0046645578453</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.667248548764984</v>
+        <v>2.039254789340951</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.015116147743317</v>
+        <v>-0.8942069473854632</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.14907654233856</v>
+        <v>-2.336811965643046</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3563817911602009</v>
+        <v>0.3963239492801077</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2460806817685348</v>
+        <v>0.3279916137253381</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.09179787639477259</v>
+        <v>-0.08884918792176093</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1427611403460335</v>
+        <v>-0.1421940625064471</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.625204266982034</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.77609548352391</v>
+        <v>1.776095483523912</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3000295652391036</v>
@@ -949,7 +949,7 @@
         <v>0.1731077160624849</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.09264772017632777</v>
+        <v>0.09264772017632793</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.202730591219993</v>
+        <v>2.169276757580453</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.201468353413744</v>
+        <v>2.244583637830796</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7233844092730513</v>
+        <v>0.7823125522996179</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08922305127033797</v>
+        <v>0.1963308353128958</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1563005771536803</v>
+        <v>0.1533317968438858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1224945866934806</v>
+        <v>0.1243534514858624</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04700626921634241</v>
+        <v>0.04889275670751709</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.004188356854521492</v>
+        <v>0.01004509316245756</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.795334174303458</v>
+        <v>5.574106773837838</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.203157286964717</v>
+        <v>6.088596672742837</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.378605165662348</v>
+        <v>4.401837542480757</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.345524426024825</v>
+        <v>3.580644118429873</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4719192193883515</v>
+        <v>0.4590478550042633</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3895631414995818</v>
+        <v>0.389120844595485</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3039390568687257</v>
+        <v>0.3106377205597054</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1860119915176484</v>
+        <v>0.1981460303654014</v>
       </c>
     </row>
     <row r="16">
